--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>TC_ID</t>
   </si>
